--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Col2a1-Ddr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Col2a1-Ddr1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.05346366666666667</v>
+        <v>0.046494</v>
       </c>
       <c r="H2">
-        <v>0.160391</v>
+        <v>0.139482</v>
       </c>
       <c r="I2">
-        <v>0.0721870343191197</v>
+        <v>0.05587126560541624</v>
       </c>
       <c r="J2">
-        <v>0.07218703431911971</v>
+        <v>0.05587126560541625</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.9840236666666667</v>
+        <v>0.7592313333333333</v>
       </c>
       <c r="N2">
-        <v>2.952071</v>
+        <v>2.277694</v>
       </c>
       <c r="O2">
-        <v>0.08200347561927523</v>
+        <v>0.05311309006881704</v>
       </c>
       <c r="P2">
-        <v>0.08200347561927523</v>
+        <v>0.05311309006881704</v>
       </c>
       <c r="Q2">
-        <v>0.05260951330677778</v>
+        <v>0.035299701612</v>
       </c>
       <c r="R2">
-        <v>0.473485619761</v>
+        <v>0.317697314508</v>
       </c>
       <c r="S2">
-        <v>0.005919587708815717</v>
+        <v>0.002967495562359272</v>
       </c>
       <c r="T2">
-        <v>0.005919587708815718</v>
+        <v>0.002967495562359273</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.05346366666666667</v>
+        <v>0.046494</v>
       </c>
       <c r="H3">
-        <v>0.160391</v>
+        <v>0.139482</v>
       </c>
       <c r="I3">
-        <v>0.0721870343191197</v>
+        <v>0.05587126560541624</v>
       </c>
       <c r="J3">
-        <v>0.07218703431911971</v>
+        <v>0.05587126560541625</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>7.381612000000001</v>
       </c>
       <c r="O3">
-        <v>0.2050485370009561</v>
+        <v>0.1721303313829956</v>
       </c>
       <c r="P3">
-        <v>0.2050485370009561</v>
+        <v>0.1721303313829956</v>
       </c>
       <c r="Q3">
-        <v>0.1315493478102222</v>
+        <v>0.114400222776</v>
       </c>
       <c r="R3">
-        <v>1.183944130292</v>
+        <v>1.029602004984</v>
       </c>
       <c r="S3">
-        <v>0.0148018457775733</v>
+        <v>0.009617139463447661</v>
       </c>
       <c r="T3">
-        <v>0.01480184577757331</v>
+        <v>0.009617139463447662</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.05346366666666667</v>
+        <v>0.046494</v>
       </c>
       <c r="H4">
-        <v>0.160391</v>
+        <v>0.139482</v>
       </c>
       <c r="I4">
-        <v>0.0721870343191197</v>
+        <v>0.05587126560541624</v>
       </c>
       <c r="J4">
-        <v>0.07218703431911971</v>
+        <v>0.05587126560541625</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.36615</v>
+        <v>1.018760333333333</v>
       </c>
       <c r="N4">
-        <v>1.09845</v>
+        <v>3.056281</v>
       </c>
       <c r="O4">
-        <v>0.03051305940608911</v>
+        <v>0.07126880433834142</v>
       </c>
       <c r="P4">
-        <v>0.03051305940608911</v>
+        <v>0.07126880433834142</v>
       </c>
       <c r="Q4">
-        <v>0.01957572155</v>
+        <v>0.047366242938</v>
       </c>
       <c r="R4">
-        <v>0.17618149395</v>
+        <v>0.426296186442</v>
       </c>
       <c r="S4">
-        <v>0.002202647266528693</v>
+        <v>0.003981878296567915</v>
       </c>
       <c r="T4">
-        <v>0.002202647266528693</v>
+        <v>0.003981878296567915</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.05346366666666667</v>
+        <v>0.046494</v>
       </c>
       <c r="H5">
-        <v>0.160391</v>
+        <v>0.139482</v>
       </c>
       <c r="I5">
-        <v>0.0721870343191197</v>
+        <v>0.05587126560541624</v>
       </c>
       <c r="J5">
-        <v>0.07218703431911971</v>
+        <v>0.05587126560541625</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.062729666666668</v>
+        <v>9.893154666666666</v>
       </c>
       <c r="N5">
-        <v>24.188189</v>
+        <v>29.679464</v>
       </c>
       <c r="O5">
-        <v>0.671906457173937</v>
+        <v>0.6920894749804902</v>
       </c>
       <c r="P5">
-        <v>0.671906457173937</v>
+        <v>0.6920894749804903</v>
       </c>
       <c r="Q5">
-        <v>0.4310630913221112</v>
+        <v>0.459972333072</v>
       </c>
       <c r="R5">
-        <v>3.879567821899</v>
+        <v>4.139750997648</v>
       </c>
       <c r="S5">
-        <v>0.04850293448325312</v>
+        <v>0.03866791487934805</v>
       </c>
       <c r="T5">
-        <v>0.04850293448325314</v>
+        <v>0.03866791487934806</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.05346366666666667</v>
+        <v>0.046494</v>
       </c>
       <c r="H6">
-        <v>0.160391</v>
+        <v>0.139482</v>
       </c>
       <c r="I6">
-        <v>0.0721870343191197</v>
+        <v>0.05587126560541624</v>
       </c>
       <c r="J6">
-        <v>0.07218703431911971</v>
+        <v>0.05587126560541625</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,28 +806,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.1263393333333333</v>
+        <v>0.1629343333333333</v>
       </c>
       <c r="N6">
-        <v>0.379018</v>
+        <v>0.488803</v>
       </c>
       <c r="O6">
-        <v>0.01052847079974244</v>
+        <v>0.01139829922935564</v>
       </c>
       <c r="P6">
-        <v>0.01052847079974244</v>
+        <v>0.01139829922935564</v>
       </c>
       <c r="Q6">
-        <v>0.006754564004222222</v>
+        <v>0.007575468893999999</v>
       </c>
       <c r="R6">
-        <v>0.060791076038</v>
+        <v>0.06817922004599999</v>
       </c>
       <c r="S6">
-        <v>0.0007600190829488571</v>
+        <v>0.0006368374036933405</v>
       </c>
       <c r="T6">
-        <v>0.0007600190829488571</v>
+        <v>0.0006368374036933406</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>1.768273</v>
       </c>
       <c r="I7">
-        <v>0.7958450520077357</v>
+        <v>0.7083039420562237</v>
       </c>
       <c r="J7">
-        <v>0.7958450520077358</v>
+        <v>0.7083039420562237</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.9840236666666667</v>
+        <v>0.7592313333333333</v>
       </c>
       <c r="N7">
-        <v>2.952071</v>
+        <v>2.277694</v>
       </c>
       <c r="O7">
-        <v>0.08200347561927523</v>
+        <v>0.05311309006881704</v>
       </c>
       <c r="P7">
-        <v>0.08200347561927523</v>
+        <v>0.05311309006881704</v>
       </c>
       <c r="Q7">
-        <v>0.5800074937092222</v>
+        <v>0.4475094224957777</v>
       </c>
       <c r="R7">
-        <v>5.220067443383</v>
+        <v>4.027584802462</v>
       </c>
       <c r="S7">
-        <v>0.06526206031903718</v>
+        <v>0.03762021107053037</v>
       </c>
       <c r="T7">
-        <v>0.0652620603190372</v>
+        <v>0.03762021107053037</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>1.768273</v>
       </c>
       <c r="I8">
-        <v>0.7958450520077357</v>
+        <v>0.7083039420562237</v>
       </c>
       <c r="J8">
-        <v>0.7958450520077358</v>
+        <v>0.7083039420562237</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>7.381612000000001</v>
       </c>
       <c r="O8">
-        <v>0.2050485370009561</v>
+        <v>0.1721303313829956</v>
       </c>
       <c r="P8">
-        <v>0.2050485370009561</v>
+        <v>0.1721303313829956</v>
       </c>
       <c r="Q8">
         <v>1.450300577341778</v>
@@ -948,10 +948,10 @@
         <v>13.052705196076</v>
       </c>
       <c r="S8">
-        <v>0.163186863593636</v>
+        <v>0.1219205922660199</v>
       </c>
       <c r="T8">
-        <v>0.1631868635936361</v>
+        <v>0.1219205922660199</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>1.768273</v>
       </c>
       <c r="I9">
-        <v>0.7958450520077357</v>
+        <v>0.7083039420562237</v>
       </c>
       <c r="J9">
-        <v>0.7958450520077358</v>
+        <v>0.7083039420562237</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.36615</v>
+        <v>1.018760333333333</v>
       </c>
       <c r="N9">
-        <v>1.09845</v>
+        <v>3.056281</v>
       </c>
       <c r="O9">
-        <v>0.03051305940608911</v>
+        <v>0.07126880433834142</v>
       </c>
       <c r="P9">
-        <v>0.03051305940608911</v>
+        <v>0.07126880433834142</v>
       </c>
       <c r="Q9">
-        <v>0.21581771965</v>
+        <v>0.6004821303014444</v>
       </c>
       <c r="R9">
-        <v>1.94235947685</v>
+        <v>5.404339172713</v>
       </c>
       <c r="S9">
-        <v>0.02428366734995411</v>
+        <v>0.05047997505848092</v>
       </c>
       <c r="T9">
-        <v>0.02428366734995412</v>
+        <v>0.05047997505848092</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>1.768273</v>
       </c>
       <c r="I10">
-        <v>0.7958450520077357</v>
+        <v>0.7083039420562237</v>
       </c>
       <c r="J10">
-        <v>0.7958450520077358</v>
+        <v>0.7083039420562237</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.062729666666668</v>
+        <v>9.893154666666666</v>
       </c>
       <c r="N10">
-        <v>24.188189</v>
+        <v>29.679464</v>
       </c>
       <c r="O10">
-        <v>0.671906457173937</v>
+        <v>0.6920894749804902</v>
       </c>
       <c r="P10">
-        <v>0.671906457173937</v>
+        <v>0.6920894749804903</v>
       </c>
       <c r="Q10">
-        <v>4.752369058621889</v>
+        <v>5.831266093963555</v>
       </c>
       <c r="R10">
-        <v>42.771321527597</v>
+        <v>52.481394845672</v>
       </c>
       <c r="S10">
-        <v>0.5347334293539253</v>
+        <v>0.4902097033843034</v>
       </c>
       <c r="T10">
-        <v>0.5347334293539254</v>
+        <v>0.4902097033843035</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>1.768273</v>
       </c>
       <c r="I11">
-        <v>0.7958450520077357</v>
+        <v>0.7083039420562237</v>
       </c>
       <c r="J11">
-        <v>0.7958450520077358</v>
+        <v>0.7083039420562237</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1116,28 +1116,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.1263393333333333</v>
+        <v>0.1629343333333333</v>
       </c>
       <c r="N11">
-        <v>0.379018</v>
+        <v>0.488803</v>
       </c>
       <c r="O11">
-        <v>0.01052847079974244</v>
+        <v>0.01139829922935564</v>
       </c>
       <c r="P11">
-        <v>0.01052847079974244</v>
+        <v>0.01139829922935564</v>
       </c>
       <c r="Q11">
-        <v>0.07446747732377777</v>
+        <v>0.0960374608021111</v>
       </c>
       <c r="R11">
-        <v>0.670207295914</v>
+        <v>0.864337147219</v>
       </c>
       <c r="S11">
-        <v>0.008379031391182947</v>
+        <v>0.00807346027688902</v>
       </c>
       <c r="T11">
-        <v>0.008379031391182947</v>
+        <v>0.00807346027688902</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.018799</v>
+        <v>0.1246316666666667</v>
       </c>
       <c r="H12">
-        <v>0.056397</v>
+        <v>0.373895</v>
       </c>
       <c r="I12">
-        <v>0.02538254749016711</v>
+        <v>0.1497683346491813</v>
       </c>
       <c r="J12">
-        <v>0.02538254749016712</v>
+        <v>0.1497683346491813</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.9840236666666667</v>
+        <v>0.7592313333333333</v>
       </c>
       <c r="N12">
-        <v>2.952071</v>
+        <v>2.277694</v>
       </c>
       <c r="O12">
-        <v>0.08200347561927523</v>
+        <v>0.05311309006881704</v>
       </c>
       <c r="P12">
-        <v>0.08200347561927523</v>
+        <v>0.05311309006881704</v>
       </c>
       <c r="Q12">
-        <v>0.01849866090966667</v>
+        <v>0.09462426645888887</v>
       </c>
       <c r="R12">
-        <v>0.166487948187</v>
+        <v>0.85161839813</v>
       </c>
       <c r="S12">
-        <v>0.002081457114265015</v>
+        <v>0.007954659047678695</v>
       </c>
       <c r="T12">
-        <v>0.002081457114265015</v>
+        <v>0.007954659047678697</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.018799</v>
+        <v>0.1246316666666667</v>
       </c>
       <c r="H13">
-        <v>0.056397</v>
+        <v>0.373895</v>
       </c>
       <c r="I13">
-        <v>0.02538254749016711</v>
+        <v>0.1497683346491813</v>
       </c>
       <c r="J13">
-        <v>0.02538254749016712</v>
+        <v>0.1497683346491813</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>7.381612000000001</v>
       </c>
       <c r="O13">
-        <v>0.2050485370009561</v>
+        <v>0.1721303313829956</v>
       </c>
       <c r="P13">
-        <v>0.2050485370009561</v>
+        <v>0.1721303313829956</v>
       </c>
       <c r="Q13">
-        <v>0.04625564132933333</v>
+        <v>0.3066608687488889</v>
       </c>
       <c r="R13">
-        <v>0.4163007719640001</v>
+        <v>2.75994781874</v>
       </c>
       <c r="S13">
-        <v>0.005204654228216057</v>
+        <v>0.02577967307384295</v>
       </c>
       <c r="T13">
-        <v>0.005204654228216059</v>
+        <v>0.02577967307384296</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.018799</v>
+        <v>0.1246316666666667</v>
       </c>
       <c r="H14">
-        <v>0.056397</v>
+        <v>0.373895</v>
       </c>
       <c r="I14">
-        <v>0.02538254749016711</v>
+        <v>0.1497683346491813</v>
       </c>
       <c r="J14">
-        <v>0.02538254749016712</v>
+        <v>0.1497683346491813</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.36615</v>
+        <v>1.018760333333333</v>
       </c>
       <c r="N14">
-        <v>1.09845</v>
+        <v>3.056281</v>
       </c>
       <c r="O14">
-        <v>0.03051305940608911</v>
+        <v>0.07126880433834142</v>
       </c>
       <c r="P14">
-        <v>0.03051305940608911</v>
+        <v>0.07126880433834142</v>
       </c>
       <c r="Q14">
-        <v>0.00688325385</v>
+        <v>0.1269697982772222</v>
       </c>
       <c r="R14">
-        <v>0.06194928465</v>
+        <v>1.142728184495</v>
       </c>
       <c r="S14">
-        <v>0.000774499179445347</v>
+        <v>0.01067381013819174</v>
       </c>
       <c r="T14">
-        <v>0.0007744991794453473</v>
+        <v>0.01067381013819174</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.018799</v>
+        <v>0.1246316666666667</v>
       </c>
       <c r="H15">
-        <v>0.056397</v>
+        <v>0.373895</v>
       </c>
       <c r="I15">
-        <v>0.02538254749016711</v>
+        <v>0.1497683346491813</v>
       </c>
       <c r="J15">
-        <v>0.02538254749016712</v>
+        <v>0.1497683346491813</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>8.062729666666668</v>
+        <v>9.893154666666666</v>
       </c>
       <c r="N15">
-        <v>24.188189</v>
+        <v>29.679464</v>
       </c>
       <c r="O15">
-        <v>0.671906457173937</v>
+        <v>0.6920894749804902</v>
       </c>
       <c r="P15">
-        <v>0.671906457173937</v>
+        <v>0.6920894749804903</v>
       </c>
       <c r="Q15">
-        <v>0.1515712550036667</v>
+        <v>1.233000354697777</v>
       </c>
       <c r="R15">
-        <v>1.364141295033</v>
+        <v>11.09700319228</v>
       </c>
       <c r="S15">
-        <v>0.01705469755816739</v>
+        <v>0.1036530880960542</v>
       </c>
       <c r="T15">
-        <v>0.0170546975581674</v>
+        <v>0.1036530880960543</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.018799</v>
+        <v>0.1246316666666667</v>
       </c>
       <c r="H16">
-        <v>0.056397</v>
+        <v>0.373895</v>
       </c>
       <c r="I16">
-        <v>0.02538254749016711</v>
+        <v>0.1497683346491813</v>
       </c>
       <c r="J16">
-        <v>0.02538254749016712</v>
+        <v>0.1497683346491813</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1426,28 +1426,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.1263393333333333</v>
+        <v>0.1629343333333333</v>
       </c>
       <c r="N16">
-        <v>0.379018</v>
+        <v>0.488803</v>
       </c>
       <c r="O16">
-        <v>0.01052847079974244</v>
+        <v>0.01139829922935564</v>
       </c>
       <c r="P16">
-        <v>0.01052847079974244</v>
+        <v>0.01139829922935564</v>
       </c>
       <c r="Q16">
-        <v>0.002375053127333333</v>
+        <v>0.02030677752055555</v>
       </c>
       <c r="R16">
-        <v>0.021375478146</v>
+        <v>0.182760997685</v>
       </c>
       <c r="S16">
-        <v>0.0002672394100733002</v>
+        <v>0.001707104293413641</v>
       </c>
       <c r="T16">
-        <v>0.0002672394100733002</v>
+        <v>0.001707104293413641</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.06181866666666667</v>
+        <v>0.05954566666666666</v>
       </c>
       <c r="H17">
-        <v>0.185456</v>
+        <v>0.178637</v>
       </c>
       <c r="I17">
-        <v>0.08346801651393571</v>
+        <v>0.07155529225243931</v>
       </c>
       <c r="J17">
-        <v>0.08346801651393573</v>
+        <v>0.07155529225243933</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.9840236666666667</v>
+        <v>0.7592313333333333</v>
       </c>
       <c r="N17">
-        <v>2.952071</v>
+        <v>2.277694</v>
       </c>
       <c r="O17">
-        <v>0.08200347561927523</v>
+        <v>0.05311309006881704</v>
       </c>
       <c r="P17">
-        <v>0.08200347561927523</v>
+        <v>0.05311309006881704</v>
       </c>
       <c r="Q17">
-        <v>0.06083103104177778</v>
+        <v>0.04520893589755555</v>
       </c>
       <c r="R17">
-        <v>0.547479279376</v>
+        <v>0.4068804230779999</v>
       </c>
       <c r="S17">
-        <v>0.006844667457189789</v>
+        <v>0.003800522682304335</v>
       </c>
       <c r="T17">
-        <v>0.006844667457189792</v>
+        <v>0.003800522682304336</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.06181866666666667</v>
+        <v>0.05954566666666666</v>
       </c>
       <c r="H18">
-        <v>0.185456</v>
+        <v>0.178637</v>
       </c>
       <c r="I18">
-        <v>0.08346801651393571</v>
+        <v>0.07155529225243931</v>
       </c>
       <c r="J18">
-        <v>0.08346801651393573</v>
+        <v>0.07155529225243933</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>7.381612000000001</v>
       </c>
       <c r="O18">
-        <v>0.2050485370009561</v>
+        <v>0.1721303313829956</v>
       </c>
       <c r="P18">
-        <v>0.2050485370009561</v>
+        <v>0.1721303313829956</v>
       </c>
       <c r="Q18">
-        <v>0.1521071372302222</v>
+        <v>0.1465143358715555</v>
       </c>
       <c r="R18">
-        <v>1.368964235072</v>
+        <v>1.318629022844</v>
       </c>
       <c r="S18">
-        <v>0.01711499467255416</v>
+        <v>0.01231683616761948</v>
       </c>
       <c r="T18">
-        <v>0.01711499467255417</v>
+        <v>0.01231683616761948</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.06181866666666667</v>
+        <v>0.05954566666666666</v>
       </c>
       <c r="H19">
-        <v>0.185456</v>
+        <v>0.178637</v>
       </c>
       <c r="I19">
-        <v>0.08346801651393571</v>
+        <v>0.07155529225243931</v>
       </c>
       <c r="J19">
-        <v>0.08346801651393573</v>
+        <v>0.07155529225243933</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.36615</v>
+        <v>1.018760333333333</v>
       </c>
       <c r="N19">
-        <v>1.09845</v>
+        <v>3.056281</v>
       </c>
       <c r="O19">
-        <v>0.03051305940608911</v>
+        <v>0.07126880433834142</v>
       </c>
       <c r="P19">
-        <v>0.03051305940608911</v>
+        <v>0.07126880433834142</v>
       </c>
       <c r="Q19">
-        <v>0.0226349048</v>
+        <v>0.06066276322188888</v>
       </c>
       <c r="R19">
-        <v>0.2037141432</v>
+        <v>0.5459648689969999</v>
       </c>
       <c r="S19">
-        <v>0.002546864546398147</v>
+        <v>0.005099660122911935</v>
       </c>
       <c r="T19">
-        <v>0.002546864546398147</v>
+        <v>0.005099660122911936</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.06181866666666667</v>
+        <v>0.05954566666666666</v>
       </c>
       <c r="H20">
-        <v>0.185456</v>
+        <v>0.178637</v>
       </c>
       <c r="I20">
-        <v>0.08346801651393571</v>
+        <v>0.07155529225243931</v>
       </c>
       <c r="J20">
-        <v>0.08346801651393573</v>
+        <v>0.07155529225243933</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>8.062729666666668</v>
+        <v>9.893154666666666</v>
       </c>
       <c r="N20">
-        <v>24.188189</v>
+        <v>29.679464</v>
       </c>
       <c r="O20">
-        <v>0.671906457173937</v>
+        <v>0.6920894749804902</v>
       </c>
       <c r="P20">
-        <v>0.671906457173937</v>
+        <v>0.6920894749804903</v>
       </c>
       <c r="Q20">
-        <v>0.4984271976871112</v>
+        <v>0.589094490063111</v>
       </c>
       <c r="R20">
-        <v>4.485844779184</v>
+        <v>5.301850410568</v>
       </c>
       <c r="S20">
-        <v>0.05608269926321421</v>
+        <v>0.04952266464706626</v>
       </c>
       <c r="T20">
-        <v>0.05608269926321423</v>
+        <v>0.04952266464706628</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.06181866666666667</v>
+        <v>0.05954566666666666</v>
       </c>
       <c r="H21">
-        <v>0.185456</v>
+        <v>0.178637</v>
       </c>
       <c r="I21">
-        <v>0.08346801651393571</v>
+        <v>0.07155529225243931</v>
       </c>
       <c r="J21">
-        <v>0.08346801651393573</v>
+        <v>0.07155529225243933</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -1736,28 +1736,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.1263393333333333</v>
+        <v>0.1629343333333333</v>
       </c>
       <c r="N21">
-        <v>0.379018</v>
+        <v>0.488803</v>
       </c>
       <c r="O21">
-        <v>0.01052847079974244</v>
+        <v>0.01139829922935564</v>
       </c>
       <c r="P21">
-        <v>0.01052847079974244</v>
+        <v>0.01139829922935564</v>
       </c>
       <c r="Q21">
-        <v>0.007810129134222223</v>
+        <v>0.009702033501222221</v>
       </c>
       <c r="R21">
-        <v>0.070291162208</v>
+        <v>0.08731830151099999</v>
       </c>
       <c r="S21">
-        <v>0.0008787905745793917</v>
+        <v>0.000815608632537297</v>
       </c>
       <c r="T21">
-        <v>0.0008787905745793919</v>
+        <v>0.0008156086325372971</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.01712133333333334</v>
+        <v>0.01206733333333333</v>
       </c>
       <c r="H22">
-        <v>0.05136400000000001</v>
+        <v>0.036202</v>
       </c>
       <c r="I22">
-        <v>0.02311734966904168</v>
+        <v>0.01450116543673935</v>
       </c>
       <c r="J22">
-        <v>0.02311734966904169</v>
+        <v>0.01450116543673936</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.9840236666666667</v>
+        <v>0.7592313333333333</v>
       </c>
       <c r="N22">
-        <v>2.952071</v>
+        <v>2.277694</v>
       </c>
       <c r="O22">
-        <v>0.08200347561927523</v>
+        <v>0.05311309006881704</v>
       </c>
       <c r="P22">
-        <v>0.08200347561927523</v>
+        <v>0.05311309006881704</v>
       </c>
       <c r="Q22">
-        <v>0.01684779720488889</v>
+        <v>0.009161897576444443</v>
       </c>
       <c r="R22">
-        <v>0.151630174844</v>
+        <v>0.08245707818799999</v>
       </c>
       <c r="S22">
-        <v>0.00189570301996752</v>
+        <v>0.0007702017059443538</v>
       </c>
       <c r="T22">
-        <v>0.00189570301996752</v>
+        <v>0.000770201705944354</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.01712133333333334</v>
+        <v>0.01206733333333333</v>
       </c>
       <c r="H23">
-        <v>0.05136400000000001</v>
+        <v>0.036202</v>
       </c>
       <c r="I23">
-        <v>0.02311734966904168</v>
+        <v>0.01450116543673935</v>
       </c>
       <c r="J23">
-        <v>0.02311734966904169</v>
+        <v>0.01450116543673936</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>7.381612000000001</v>
       </c>
       <c r="O23">
-        <v>0.2050485370009561</v>
+        <v>0.1721303313829956</v>
       </c>
       <c r="P23">
-        <v>0.2050485370009561</v>
+        <v>0.1721303313829956</v>
       </c>
       <c r="Q23">
-        <v>0.04212767986311112</v>
+        <v>0.02969212418044444</v>
       </c>
       <c r="R23">
-        <v>0.3791491187680001</v>
+        <v>0.267229117624</v>
       </c>
       <c r="S23">
-        <v>0.004740178728976534</v>
+        <v>0.002496090412065587</v>
       </c>
       <c r="T23">
-        <v>0.004740178728976535</v>
+        <v>0.002496090412065587</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.01712133333333334</v>
+        <v>0.01206733333333333</v>
       </c>
       <c r="H24">
-        <v>0.05136400000000001</v>
+        <v>0.036202</v>
       </c>
       <c r="I24">
-        <v>0.02311734966904168</v>
+        <v>0.01450116543673935</v>
       </c>
       <c r="J24">
-        <v>0.02311734966904169</v>
+        <v>0.01450116543673936</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.36615</v>
+        <v>1.018760333333333</v>
       </c>
       <c r="N24">
-        <v>1.09845</v>
+        <v>3.056281</v>
       </c>
       <c r="O24">
-        <v>0.03051305940608911</v>
+        <v>0.07126880433834142</v>
       </c>
       <c r="P24">
-        <v>0.03051305940608911</v>
+        <v>0.07126880433834142</v>
       </c>
       <c r="Q24">
-        <v>0.006268976200000001</v>
+        <v>0.01229372052911111</v>
       </c>
       <c r="R24">
-        <v>0.0564207858</v>
+        <v>0.110643484762</v>
       </c>
       <c r="S24">
-        <v>0.0007053810637628031</v>
+        <v>0.001033480722188896</v>
       </c>
       <c r="T24">
-        <v>0.0007053810637628032</v>
+        <v>0.001033480722188896</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>0.01712133333333334</v>
+        <v>0.01206733333333333</v>
       </c>
       <c r="H25">
-        <v>0.05136400000000001</v>
+        <v>0.036202</v>
       </c>
       <c r="I25">
-        <v>0.02311734966904168</v>
+        <v>0.01450116543673935</v>
       </c>
       <c r="J25">
-        <v>0.02311734966904169</v>
+        <v>0.01450116543673936</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>8.062729666666668</v>
+        <v>9.893154666666666</v>
       </c>
       <c r="N25">
-        <v>24.188189</v>
+        <v>29.679464</v>
       </c>
       <c r="O25">
-        <v>0.671906457173937</v>
+        <v>0.6920894749804902</v>
       </c>
       <c r="P25">
-        <v>0.671906457173937</v>
+        <v>0.6920894749804903</v>
       </c>
       <c r="Q25">
-        <v>0.1380446821995556</v>
+        <v>0.1193839950808889</v>
       </c>
       <c r="R25">
-        <v>1.242402139796</v>
+        <v>1.074455955728</v>
       </c>
       <c r="S25">
-        <v>0.01553269651537688</v>
+        <v>0.01003610397371817</v>
       </c>
       <c r="T25">
-        <v>0.01553269651537689</v>
+        <v>0.01003610397371817</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.01712133333333334</v>
+        <v>0.01206733333333333</v>
       </c>
       <c r="H26">
-        <v>0.05136400000000001</v>
+        <v>0.036202</v>
       </c>
       <c r="I26">
-        <v>0.02311734966904168</v>
+        <v>0.01450116543673935</v>
       </c>
       <c r="J26">
-        <v>0.02311734966904169</v>
+        <v>0.01450116543673936</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2046,28 +2046,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M26">
-        <v>0.1263393333333333</v>
+        <v>0.1629343333333333</v>
       </c>
       <c r="N26">
-        <v>0.379018</v>
+        <v>0.488803</v>
       </c>
       <c r="O26">
-        <v>0.01052847079974244</v>
+        <v>0.01139829922935564</v>
       </c>
       <c r="P26">
-        <v>0.01052847079974244</v>
+        <v>0.01139829922935564</v>
       </c>
       <c r="Q26">
-        <v>0.002163097839111111</v>
+        <v>0.001966182911777777</v>
       </c>
       <c r="R26">
-        <v>0.019467880552</v>
+        <v>0.017695646206</v>
       </c>
       <c r="S26">
-        <v>0.0002433903409579409</v>
+        <v>0.0001652886228223449</v>
       </c>
       <c r="T26">
-        <v>0.0002433903409579409</v>
+        <v>0.0001652886228223449</v>
       </c>
     </row>
   </sheetData>
